--- a/src/main/resources/template/excel/export/categoryBigSaleReport.xlsx
+++ b/src/main/resources/template/excel/export/categoryBigSaleReport.xlsx
@@ -59,9 +59,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t>类别销售汇总表</t>
-  </si>
-  <si>
     <t>机构名称</t>
   </si>
   <si>
@@ -273,6 +270,10 @@
   </si>
   <si>
     <t>${obj.saleRotationDay}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>品类销售分析</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -777,7 +778,7 @@
   <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -793,7 +794,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -809,78 +810,78 @@
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="J3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="L3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/template/excel/export/categoryBigSaleReport.xlsx
+++ b/src/main/resources/template/excel/export/categoryBigSaleReport.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\yangyq02\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jason4j/develop/okdeer/okdeer-jxc-web/src/main/resources/template/excel/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21330" windowHeight="4845"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -24,7 +29,7 @@
     <author>BMM</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -38,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -273,7 +278,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>品类销售分析</t>
+    <t>类别销售分析</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +481,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -781,18 +786,18 @@
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="2" customWidth="1"/>
-    <col min="3" max="7" width="12.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="2" customWidth="1"/>
+    <col min="3" max="7" width="12.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="12.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -808,7 +813,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -846,7 +851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -884,103 +889,103 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
